--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_TRDBAL_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_TRDBAL_AVERAGE_10_9.xlsx
@@ -369,187 +369,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA24"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
       <c r="B3">
-        <v>-0.2201547815831817</v>
+        <v>-0.3422723562191532</v>
       </c>
       <c r="C3">
-        <v>0.7015182403732778</v>
+        <v>0.4944284391569687</v>
       </c>
       <c r="D3">
-        <v>-0.7420476828353562</v>
+        <v>-0.5037688924316441</v>
       </c>
       <c r="E3">
         <v>-0.5555135891318952</v>
@@ -695,28 +692,25 @@
       <c r="AZ3">
         <v>-0.5555135891318952</v>
       </c>
-      <c r="BA3">
-        <v>-0.5555135891318952</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
       <c r="B4">
-        <v>-0.2717837129693645</v>
+        <v>-0.3678291324228367</v>
       </c>
       <c r="C4">
-        <v>-0.008824529302886575</v>
+        <v>0.3579071119161004</v>
       </c>
       <c r="D4">
-        <v>-1.240409171379053</v>
+        <v>-0.467076459743887</v>
       </c>
       <c r="E4">
-        <v>-0.2451976371230291</v>
+        <v>-0.4782015746048418</v>
       </c>
       <c r="F4">
-        <v>0.2972988696328782</v>
+        <v>0.169534172659791</v>
       </c>
       <c r="G4">
         <v>0.8442071301477228</v>
@@ -856,31 +850,25 @@
       <c r="AZ4">
         <v>0.8442071301477228</v>
       </c>
-      <c r="BA4">
-        <v>0.8442071301477228</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
-      <c r="C5">
-        <v>0.2969062397804478</v>
-      </c>
       <c r="D5">
-        <v>-0.7222458770121065</v>
+        <v>-0.3360947699977967</v>
       </c>
       <c r="E5">
-        <v>0.07203940121298658</v>
+        <v>-0.3600168145845517</v>
       </c>
       <c r="F5">
-        <v>0.2948307587633314</v>
+        <v>-0.03968684591929561</v>
       </c>
       <c r="G5">
-        <v>1.212115489820365</v>
+        <v>1.324233212457782</v>
       </c>
       <c r="H5">
-        <v>1.013480763294794</v>
+        <v>1.032338390744236</v>
       </c>
       <c r="I5">
         <v>1.122475521884692</v>
@@ -1014,31 +1002,25 @@
       <c r="AZ5">
         <v>1.122475521884692</v>
       </c>
-      <c r="BA5">
-        <v>1.122475521884692</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
-      <c r="E6">
-        <v>-0.3499100712961001</v>
-      </c>
       <c r="F6">
-        <v>-0.08409743865126496</v>
+        <v>-0.09284881712173787</v>
       </c>
       <c r="G6">
-        <v>0.7628874174105515</v>
+        <v>0.6032582924254459</v>
       </c>
       <c r="H6">
-        <v>0.5202173507404373</v>
+        <v>0.3765075513336269</v>
       </c>
       <c r="I6">
-        <v>0.3626630030113764</v>
+        <v>0.7478380109886329</v>
       </c>
       <c r="J6">
-        <v>-0.4258007569310829</v>
+        <v>-0.1937612543835177</v>
       </c>
       <c r="K6">
         <v>-0.578174579726376</v>
@@ -1166,31 +1148,25 @@
       <c r="AZ6">
         <v>-0.578174579726376</v>
       </c>
-      <c r="BA6">
-        <v>-0.578174579726376</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
-      <c r="G7">
-        <v>1.081039361746194</v>
-      </c>
       <c r="H7">
-        <v>0.9275620270439822</v>
+        <v>0.3941427794649011</v>
       </c>
       <c r="I7">
-        <v>0.2897333453441009</v>
+        <v>0.8822337163017169</v>
       </c>
       <c r="J7">
-        <v>-0.1514469911639837</v>
+        <v>0.6066710853121382</v>
       </c>
       <c r="K7">
-        <v>-0.7218300370884001</v>
+        <v>-0.2445716668737163</v>
       </c>
       <c r="L7">
-        <v>-0.7514559363454909</v>
+        <v>-0.8331679621937482</v>
       </c>
       <c r="M7">
         <v>-0.7492845378401558</v>
@@ -1312,31 +1288,25 @@
       <c r="AZ7">
         <v>-0.7492845378401558</v>
       </c>
-      <c r="BA7">
-        <v>-0.7492845378401558</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
-      <c r="I8">
-        <v>0.4587560305197913</v>
-      </c>
       <c r="J8">
-        <v>0.03063197017765251</v>
+        <v>0.7277994253700903</v>
       </c>
       <c r="K8">
-        <v>-0.3259998216634918</v>
+        <v>0.2906157075715843</v>
       </c>
       <c r="L8">
-        <v>-0.2624923868491114</v>
+        <v>-0.3970496740026364</v>
       </c>
       <c r="M8">
-        <v>-0.07607154651957382</v>
+        <v>-0.2617076051026235</v>
       </c>
       <c r="N8">
-        <v>0.2199740425759433</v>
+        <v>0.1273541662098365</v>
       </c>
       <c r="O8">
         <v>0.2751437421933511</v>
@@ -1452,31 +1422,25 @@
       <c r="AZ8">
         <v>0.2751437421933511</v>
       </c>
-      <c r="BA8">
-        <v>0.2751437421933511</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
-      <c r="K9">
-        <v>-0.6149801538409716</v>
-      </c>
       <c r="L9">
-        <v>-0.6030645486723052</v>
+        <v>-0.4500509424276378</v>
       </c>
       <c r="M9">
-        <v>-0.1088556127506468</v>
+        <v>-0.4583244495613092</v>
       </c>
       <c r="N9">
-        <v>-0.120632305179047</v>
+        <v>-0.4865818826308876</v>
       </c>
       <c r="O9">
-        <v>-0.184453991189526</v>
+        <v>-0.100009932057743</v>
       </c>
       <c r="P9">
-        <v>-0.08253785766044741</v>
+        <v>-0.08273351073040391</v>
       </c>
       <c r="Q9">
         <v>0.07468705617190707</v>
@@ -1586,31 +1550,25 @@
       <c r="AZ9">
         <v>0.07468705617190707</v>
       </c>
-      <c r="BA9">
-        <v>0.07468705617190707</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
-      <c r="M10">
-        <v>-0.2467063145023429</v>
-      </c>
       <c r="N10">
-        <v>-0.1479994650549599</v>
+        <v>-0.5189868785143603</v>
       </c>
       <c r="O10">
-        <v>-0.1735764620132585</v>
+        <v>-0.2397840863870959</v>
       </c>
       <c r="P10">
-        <v>-0.05283100274984243</v>
+        <v>-0.01252079199893785</v>
       </c>
       <c r="Q10">
-        <v>0.3631938889236741</v>
+        <v>0.3000376062062493</v>
       </c>
       <c r="R10">
-        <v>-0.05493014849097255</v>
+        <v>-0.1151820594382569</v>
       </c>
       <c r="S10">
         <v>-0.05493014849097255</v>
@@ -1714,31 +1672,25 @@
       <c r="AZ10">
         <v>-0.05493014849097255</v>
       </c>
-      <c r="BA10">
-        <v>-0.05493014849097255</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
-      <c r="O11">
-        <v>-0.03760895540168008</v>
-      </c>
       <c r="P11">
-        <v>0.03997131908353158</v>
+        <v>-0.03999400040000101</v>
       </c>
       <c r="Q11">
-        <v>0.134779482339642</v>
+        <v>0.2001500500062203</v>
       </c>
       <c r="R11">
-        <v>0.1293664204464307</v>
+        <v>0.07348980370169844</v>
       </c>
       <c r="S11">
-        <v>0.1249812328300459</v>
+        <v>0.1740313431290996</v>
       </c>
       <c r="T11">
-        <v>0.1772374095820428</v>
+        <v>0.157394256377752</v>
       </c>
       <c r="U11">
         <v>0.2820931576894115</v>
@@ -1836,37 +1788,31 @@
       <c r="AZ11">
         <v>0.2820931576894115</v>
       </c>
-      <c r="BA11">
-        <v>0.2820931576894115</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
-      <c r="Q12">
-        <v>0.1819454820480848</v>
-      </c>
       <c r="R12">
-        <v>0.02324835434079908</v>
+        <v>0.07838989163155841</v>
       </c>
       <c r="S12">
-        <v>-0.01561134476421033</v>
+        <v>0.07838989163158061</v>
       </c>
       <c r="T12">
-        <v>0.1067192150770779</v>
+        <v>0.06194937150048041</v>
       </c>
       <c r="U12">
-        <v>0.2464114370821502</v>
+        <v>0.3390041783450259</v>
       </c>
       <c r="V12">
-        <v>0.4722128445998619</v>
+        <v>0.2895071529679827</v>
       </c>
       <c r="W12">
-        <v>0.3858180453838456</v>
+        <v>0.3426151435189873</v>
       </c>
       <c r="X12">
-        <v>0.1945700812221007</v>
+        <v>0.187607693984293</v>
       </c>
       <c r="Y12">
         <v>0.2343541283920114</v>
@@ -1952,46 +1898,37 @@
       <c r="AZ12">
         <v>0.2343541283920114</v>
       </c>
-      <c r="BA12">
-        <v>0.2343541283920114</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
-      <c r="R13">
-        <v>-0.02659003611434896</v>
-      </c>
-      <c r="S13">
-        <v>-0.04162664200025867</v>
-      </c>
       <c r="T13">
-        <v>0.09909817504663021</v>
+        <v>0.05248803135060598</v>
       </c>
       <c r="U13">
-        <v>0.1457191319062856</v>
+        <v>0.2214516015410783</v>
       </c>
       <c r="V13">
-        <v>0.2292478578912682</v>
+        <v>0.1190486358061627</v>
       </c>
       <c r="W13">
-        <v>0.207570107975763</v>
+        <v>0.1686730364466316</v>
       </c>
       <c r="X13">
-        <v>0.007490141202270983</v>
+        <v>0.02358181985058216</v>
       </c>
       <c r="Y13">
-        <v>0.2374675790670411</v>
+        <v>0.2210188332817387</v>
       </c>
       <c r="Z13">
-        <v>0.33359684781058</v>
+        <v>0.3712693419885671</v>
       </c>
       <c r="AA13">
-        <v>0.186480910314879</v>
+        <v>0.1598952850611068</v>
       </c>
       <c r="AB13">
-        <v>-0.0007133001605263978</v>
+        <v>-0.02097628618118463</v>
       </c>
       <c r="AC13">
         <v>-0.009430310228020211</v>
@@ -2065,52 +2002,40 @@
       <c r="AZ13">
         <v>-0.009430310228020211</v>
       </c>
-      <c r="BA13">
-        <v>-0.009430310228020211</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
-      <c r="T14">
-        <v>0.1245556948052728</v>
-      </c>
-      <c r="U14">
-        <v>0.2258732684128573</v>
-      </c>
-      <c r="V14">
-        <v>0.1988531317151709</v>
-      </c>
       <c r="W14">
-        <v>0.1898465787513848</v>
+        <v>0.1555800062495782</v>
       </c>
       <c r="X14">
-        <v>0.07450917584970185</v>
+        <v>0.1685648701203801</v>
       </c>
       <c r="Y14">
-        <v>0.02725614302636625</v>
+        <v>0.2603046921112462</v>
       </c>
       <c r="Z14">
-        <v>0.02498126405197088</v>
+        <v>0.3003887663412641</v>
       </c>
       <c r="AA14">
-        <v>0.007785039500074475</v>
+        <v>0.132465972367557</v>
       </c>
       <c r="AB14">
-        <v>-0.1199330684587996</v>
+        <v>-0.1339126064348495</v>
       </c>
       <c r="AC14">
-        <v>-0.1185160685694409</v>
+        <v>-0.09571633453315798</v>
       </c>
       <c r="AD14">
-        <v>-0.09195392075255215</v>
+        <v>-0.03054415496863694</v>
       </c>
       <c r="AE14">
-        <v>-0.7531433808722343</v>
+        <v>-0.4923796969465988</v>
       </c>
       <c r="AF14">
-        <v>-2.594017828322792</v>
+        <v>-2.657403949513992</v>
       </c>
       <c r="AG14">
         <v>-2.657403949513992</v>
@@ -2172,58 +2097,40 @@
       <c r="AZ14">
         <v>-2.657403949513992</v>
       </c>
-      <c r="BA14">
-        <v>-2.657403949513992</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
-      <c r="V15">
-        <v>0.2805591918350725</v>
-      </c>
-      <c r="W15">
-        <v>0.2398477865823256</v>
-      </c>
-      <c r="X15">
-        <v>0.06383434439278801</v>
-      </c>
-      <c r="Y15">
-        <v>0.05222411183649633</v>
-      </c>
-      <c r="Z15">
-        <v>0.07937519617544631</v>
-      </c>
       <c r="AA15">
-        <v>0.02826681990770741</v>
+        <v>0.1889333341656085</v>
       </c>
       <c r="AB15">
-        <v>0.007628208754195676</v>
+        <v>0.07509714884945673</v>
       </c>
       <c r="AC15">
-        <v>-0.05291970973309024</v>
+        <v>0.08073518189748441</v>
       </c>
       <c r="AD15">
-        <v>-0.09084106672423431</v>
+        <v>0.035598638033707</v>
       </c>
       <c r="AE15">
-        <v>-0.2237910902102569</v>
+        <v>-0.3459257698102514</v>
       </c>
       <c r="AF15">
-        <v>2.126320849439001</v>
+        <v>-2.423328265806446</v>
       </c>
       <c r="AG15">
-        <v>0.07817184560396928</v>
+        <v>-1.49562970548649</v>
       </c>
       <c r="AH15">
-        <v>-1.0544282406034</v>
+        <v>-0.2885033948250459</v>
       </c>
       <c r="AI15">
-        <v>-0.3190555674682627</v>
+        <v>-0.5121403324772844</v>
       </c>
       <c r="AJ15">
-        <v>-0.5726882163857971</v>
+        <v>-0.3096364143617802</v>
       </c>
       <c r="AK15">
         <v>-0.3096364143617802</v>
@@ -2273,61 +2180,40 @@
       <c r="AZ15">
         <v>-0.3096364143617802</v>
       </c>
-      <c r="BA15">
-        <v>-0.3096364143617802</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
-      <c r="Y16">
-        <v>0.1696652899702666</v>
-      </c>
-      <c r="Z16">
-        <v>0.2117605129237088</v>
-      </c>
-      <c r="AA16">
-        <v>0.1369384783524996</v>
-      </c>
-      <c r="AB16">
-        <v>0.02034275206421743</v>
-      </c>
-      <c r="AC16">
-        <v>-0.04066178282503552</v>
-      </c>
-      <c r="AD16">
-        <v>-0.04934519058259479</v>
-      </c>
       <c r="AE16">
-        <v>-0.1767334564603873</v>
+        <v>-0.2239594630099373</v>
       </c>
       <c r="AF16">
-        <v>0.3565709441455178</v>
+        <v>-1.616318061533883</v>
       </c>
       <c r="AG16">
-        <v>0.2336308697720169</v>
+        <v>-1.337223818620836</v>
       </c>
       <c r="AH16">
-        <v>-0.04596664725196042</v>
+        <v>-0.599348850912329</v>
       </c>
       <c r="AI16">
-        <v>-0.507168233081734</v>
+        <v>-1.073589070820447</v>
       </c>
       <c r="AJ16">
-        <v>-0.4385391043360887</v>
+        <v>-0.3018961902350958</v>
       </c>
       <c r="AK16">
-        <v>0.3880187947925107</v>
+        <v>-0.1048501255800471</v>
       </c>
       <c r="AL16">
-        <v>0.5763850579771912</v>
+        <v>-0.2588455356339781</v>
       </c>
       <c r="AM16">
-        <v>0.1019287759377319</v>
+        <v>-0.2454721753057276</v>
       </c>
       <c r="AN16">
-        <v>-0.09402823344024647</v>
+        <v>-0.1730430455425092</v>
       </c>
       <c r="AO16">
         <v>-0.1730430455425092</v>
@@ -2365,61 +2251,43 @@
       <c r="AZ16">
         <v>-0.1730430455425092</v>
       </c>
-      <c r="BA16">
-        <v>-0.1730430455425092</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
-      <c r="AC17">
-        <v>-0.0003174594750521287</v>
-      </c>
-      <c r="AD17">
-        <v>-0.007263533527324118</v>
-      </c>
-      <c r="AE17">
-        <v>-0.3272235083663366</v>
-      </c>
-      <c r="AF17">
-        <v>0.08998400221313929</v>
-      </c>
-      <c r="AG17">
-        <v>0.5216269358020886</v>
-      </c>
       <c r="AH17">
-        <v>0.3846289239643141</v>
+        <v>-0.9533114413926458</v>
       </c>
       <c r="AI17">
-        <v>0.3967329209541459</v>
+        <v>-1.288136903730974</v>
       </c>
       <c r="AJ17">
-        <v>0.3343908780649052</v>
+        <v>-1.02314941214694</v>
       </c>
       <c r="AK17">
-        <v>0.1846051843356067</v>
+        <v>-0.9401582880721127</v>
       </c>
       <c r="AL17">
-        <v>0.6821803990256781</v>
+        <v>-1.151120647939763</v>
       </c>
       <c r="AM17">
-        <v>0.479844425366438</v>
+        <v>-1.238905350026021</v>
       </c>
       <c r="AN17">
-        <v>0.8200243578187161</v>
+        <v>-0.8943276391025989</v>
       </c>
       <c r="AO17">
-        <v>0.1247342831339759</v>
+        <v>0.9692952624595019</v>
       </c>
       <c r="AP17">
-        <v>0.5522675992340798</v>
+        <v>0.8644693227634503</v>
       </c>
       <c r="AQ17">
-        <v>0.7070687814112464</v>
+        <v>0.7038634017465073</v>
       </c>
       <c r="AR17">
-        <v>0.6846709791617167</v>
+        <v>0.6376744206510576</v>
       </c>
       <c r="AS17">
         <v>0.6376744206510576</v>
@@ -2445,61 +2313,43 @@
       <c r="AZ17">
         <v>0.6376744206510576</v>
       </c>
-      <c r="BA17">
-        <v>0.6376744206510576</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
-      <c r="AG18">
-        <v>1.505727321541239</v>
-      </c>
-      <c r="AH18">
-        <v>0.9584702917898369</v>
-      </c>
-      <c r="AI18">
-        <v>1.063305236398637</v>
-      </c>
-      <c r="AJ18">
-        <v>0.9767727517022928</v>
-      </c>
-      <c r="AK18">
-        <v>0.1517050335066328</v>
-      </c>
       <c r="AL18">
-        <v>0.282283600683475</v>
+        <v>-1.122870469184911</v>
       </c>
       <c r="AM18">
-        <v>0.1642643636215135</v>
+        <v>-1.257828108304415</v>
       </c>
       <c r="AN18">
-        <v>0.287668257548046</v>
+        <v>-1.052658082693458</v>
       </c>
       <c r="AO18">
-        <v>-0.227552385719576</v>
+        <v>1.385373425334802</v>
       </c>
       <c r="AP18">
-        <v>-0.1108534734264865</v>
+        <v>0.7652102000489602</v>
       </c>
       <c r="AQ18">
-        <v>-0.06692696028677281</v>
+        <v>0.4406734233171727</v>
       </c>
       <c r="AR18">
-        <v>0.1200849649013458</v>
+        <v>-0.09128981027868299</v>
       </c>
       <c r="AS18">
-        <v>0.006074511539599925</v>
+        <v>0.1544084105021826</v>
       </c>
       <c r="AT18">
-        <v>0.2066385473532328</v>
+        <v>0.001611361207976003</v>
       </c>
       <c r="AU18">
-        <v>0.003513949268807437</v>
+        <v>0.20168190406884</v>
       </c>
       <c r="AV18">
-        <v>0.2212143863870253</v>
+        <v>0.1856341247700399</v>
       </c>
       <c r="AW18">
         <v>0.1856341247700399</v>
@@ -2513,173 +2363,88 @@
       <c r="AZ18">
         <v>0.1856341247700399</v>
       </c>
-      <c r="BA18">
-        <v>0.1856341247700399</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
-      <c r="AK19">
-        <v>0.3044075004760893</v>
-      </c>
-      <c r="AL19">
-        <v>0.5883512064787544</v>
-      </c>
-      <c r="AM19">
-        <v>0.3121732972214186</v>
-      </c>
-      <c r="AN19">
-        <v>0.4053086060360034</v>
-      </c>
-      <c r="AO19">
-        <v>-0.4583101441430593</v>
-      </c>
       <c r="AP19">
-        <v>-0.1563510050172634</v>
+        <v>0.7168164388559273</v>
       </c>
       <c r="AQ19">
-        <v>-0.1095229998559155</v>
+        <v>0.4973302237080146</v>
       </c>
       <c r="AR19">
-        <v>0.2140216021298658</v>
+        <v>-0.0379413063031464</v>
       </c>
       <c r="AS19">
-        <v>0.06753287392999852</v>
+        <v>0.2685433396315773</v>
       </c>
       <c r="AT19">
-        <v>-0.01750050007311987</v>
+        <v>0.01799217181808199</v>
       </c>
       <c r="AU19">
-        <v>-0.0971648574240036</v>
+        <v>0.3613321345859122</v>
       </c>
       <c r="AV19">
-        <v>0.3049434951572172</v>
+        <v>0.4108497965175983</v>
       </c>
       <c r="AW19">
-        <v>0.0965383357124816</v>
+        <v>0.3997355152047577</v>
       </c>
       <c r="AX19">
-        <v>0.1605926478871034</v>
+        <v>0.08117592553187336</v>
       </c>
       <c r="AY19">
-        <v>-0.01148140173768963</v>
+        <v>-0.06418790329880686</v>
       </c>
       <c r="AZ19">
-        <v>-0.09492420427399395</v>
-      </c>
-      <c r="BA19">
         <v>-0.09450306168263811</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
-      <c r="AO20">
-        <v>-0.1214016353290326</v>
-      </c>
-      <c r="AP20">
-        <v>0.1734107312154842</v>
-      </c>
-      <c r="AQ20">
-        <v>0.2588683226036892</v>
-      </c>
-      <c r="AR20">
-        <v>0.429061703822553</v>
-      </c>
-      <c r="AS20">
-        <v>-0.1331316685116546</v>
-      </c>
       <c r="AT20">
-        <v>-0.1221287766588142</v>
+        <v>0.04041576823738957</v>
       </c>
       <c r="AU20">
-        <v>-0.1760341278413735</v>
+        <v>0.2315503018970322</v>
       </c>
       <c r="AV20">
-        <v>-0.2312491631199176</v>
+        <v>0.3875789231538196</v>
       </c>
       <c r="AW20">
-        <v>-0.1454893491307896</v>
+        <v>0.5005566802541939</v>
       </c>
       <c r="AX20">
-        <v>-0.2113357460151288</v>
+        <v>0.3069836986764551</v>
       </c>
       <c r="AY20">
-        <v>-0.3077774797124899</v>
+        <v>-0.08988642825158433</v>
       </c>
       <c r="AZ20">
-        <v>-0.2765110737940724</v>
-      </c>
-      <c r="BA20">
-        <v>-0.2733642003528658</v>
+        <v>-0.3000102673190841</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
-      <c r="AS21">
-        <v>-0.04544864311087915</v>
-      </c>
-      <c r="AT21">
-        <v>-0.00145473318499123</v>
-      </c>
-      <c r="AU21">
-        <v>-0.1185202967478816</v>
-      </c>
-      <c r="AV21">
-        <v>0.07792565914210847</v>
-      </c>
-      <c r="AW21">
-        <v>-0.1859927100555825</v>
-      </c>
       <c r="AX21">
-        <v>-0.2020822582559756</v>
+        <v>0.4008103346141656</v>
       </c>
       <c r="AY21">
-        <v>-0.2013766125707028</v>
+        <v>0.06556754296873635</v>
       </c>
       <c r="AZ21">
-        <v>-0.02725876112862347</v>
-      </c>
-      <c r="BA21">
-        <v>0.03844096882634762</v>
+        <v>-0.1252661784341358</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>47118</v>
-      </c>
-      <c r="AW22">
-        <v>-0.1423573965671054</v>
-      </c>
-      <c r="AX22">
-        <v>-0.148634770638445</v>
-      </c>
-      <c r="AY22">
-        <v>-0.2415542962087569</v>
-      </c>
-      <c r="AZ22">
-        <v>-0.1991039762645364</v>
-      </c>
-      <c r="BA22">
-        <v>-0.08060471228413801</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA23">
-        <v>-0.06916904624033604</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>47848</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_TRDBAL_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_TRDBAL_AVERAGE_10_9.xlsx
@@ -2368,7 +2368,7 @@
         <v>-0.7158018152081724</v>
       </c>
       <c r="AG17">
-        <v>-1.503583188367719</v>
+        <v>-2.1087047631976</v>
       </c>
       <c r="AH17">
         <v>-1.103489789942047</v>
@@ -2451,19 +2451,19 @@
         <v>-0.76158050880345</v>
       </c>
       <c r="AG18">
-        <v>-0.8119518419852034</v>
+        <v>-3.14817505165822</v>
       </c>
       <c r="AH18">
-        <v>1.605918384453009</v>
+        <v>0.9394308447247202</v>
       </c>
       <c r="AI18">
-        <v>2.893881462220338</v>
+        <v>1.840506831365407</v>
       </c>
       <c r="AJ18">
-        <v>1.22331349480691</v>
+        <v>1.576357831383701</v>
       </c>
       <c r="AK18">
-        <v>1.067534122491809</v>
+        <v>0.9319769131822087</v>
       </c>
       <c r="AL18">
         <v>0.9704846793491928</v>
@@ -2522,31 +2522,31 @@
         <v>-0.5986513494937284</v>
       </c>
       <c r="AG19">
-        <v>-1.103245189710156</v>
+        <v>-1.906220183715845</v>
       </c>
       <c r="AH19">
-        <v>-0.06642144261492788</v>
+        <v>-0.3994003998999962</v>
       </c>
       <c r="AI19">
-        <v>1.049469534781022</v>
+        <v>0.04000600039999469</v>
       </c>
       <c r="AJ19">
-        <v>-0.5204428773059266</v>
+        <v>-0.03826480485497052</v>
       </c>
       <c r="AK19">
-        <v>-0.2393417156003941</v>
+        <v>-0.7143539453189685</v>
       </c>
       <c r="AL19">
-        <v>-0.8255212498362474</v>
+        <v>-0.8754609427830462</v>
       </c>
       <c r="AM19">
-        <v>-0.4754331870696404</v>
+        <v>-0.05255054327949482</v>
       </c>
       <c r="AN19">
-        <v>-1.508346016334061</v>
+        <v>-1.488707312182591</v>
       </c>
       <c r="AO19">
-        <v>-0.9795431199870586</v>
+        <v>-1.002933118524796</v>
       </c>
       <c r="AP19">
         <v>-0.7009264669202708</v>
@@ -2589,38 +2589,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>0.8012324824657524</v>
-      </c>
       <c r="AJ20">
-        <v>-0.05765544176747905</v>
+        <v>0.1200540108007742</v>
       </c>
       <c r="AK20">
-        <v>-0.08391713775748322</v>
+        <v>-0.1998500499937328</v>
       </c>
       <c r="AL20">
-        <v>-0.1563008666143451</v>
+        <v>-0.3196162047590656</v>
       </c>
       <c r="AM20">
-        <v>-0.3593817194810001</v>
+        <v>0.2001500500062425</v>
       </c>
       <c r="AN20">
-        <v>-1.034042971854776</v>
+        <v>-1.062239424572275</v>
       </c>
       <c r="AO20">
-        <v>-0.476291821405983</v>
+        <v>-0.8142357075366591</v>
       </c>
       <c r="AP20">
-        <v>0.6624163082313173</v>
+        <v>-0.4769809874827891</v>
       </c>
       <c r="AQ20">
-        <v>0.01219381132999686</v>
+        <v>0.2082795303714136</v>
       </c>
       <c r="AR20">
-        <v>0.2857158074419441</v>
+        <v>0.3474924879233177</v>
       </c>
       <c r="AS20">
-        <v>0.1829021030556488</v>
+        <v>0.1825990691692869</v>
       </c>
       <c r="AT20">
         <v>0.3928252664241905</v>
@@ -2651,38 +2648,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>-0.2778267255522993</v>
-      </c>
       <c r="AN21">
-        <v>-0.6934208333463365</v>
+        <v>-0.7578367422967913</v>
       </c>
       <c r="AO21">
-        <v>-0.05003693946795673</v>
+        <v>-0.4791366909926209</v>
       </c>
       <c r="AP21">
-        <v>1.281182693605198</v>
+        <v>0.04000600040001689</v>
       </c>
       <c r="AQ21">
-        <v>-0.1052155539149613</v>
+        <v>1.165055762672784</v>
       </c>
       <c r="AR21">
-        <v>-0.2434890887128005</v>
+        <v>0.06147841237726936</v>
       </c>
       <c r="AS21">
-        <v>-0.3407920741581916</v>
+        <v>-0.5312671580391282</v>
       </c>
       <c r="AT21">
-        <v>0.302295480375836</v>
+        <v>0.1224005736915057</v>
       </c>
       <c r="AU21">
-        <v>0.2614828632771848</v>
+        <v>0.3423504836346236</v>
       </c>
       <c r="AV21">
-        <v>1.050311853611596</v>
+        <v>0.8934739937295655</v>
       </c>
       <c r="AW21">
-        <v>0.6979546684258597</v>
+        <v>0.7146010879610865</v>
       </c>
       <c r="AX21">
         <v>0.3224026462283813</v>
@@ -2701,78 +2695,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>-0.211008135819879</v>
-      </c>
       <c r="AR22">
-        <v>-0.444188402078427</v>
+        <v>-0.1199460107991657</v>
       </c>
       <c r="AS22">
-        <v>-0.2552710969426775</v>
+        <v>-0.5588250972158315</v>
       </c>
       <c r="AT22">
-        <v>0.08858153340995933</v>
+        <v>-0.0399940003999677</v>
       </c>
       <c r="AU22">
-        <v>0.1003260477960621</v>
+        <v>0.1200540108008186</v>
       </c>
       <c r="AV22">
-        <v>0.6547560647617745</v>
+        <v>0.4129745242490879</v>
       </c>
       <c r="AW22">
-        <v>0.1438580449789839</v>
+        <v>0.1950507282544311</v>
       </c>
       <c r="AX22">
-        <v>-0.7618983399156787</v>
+        <v>-0.9749878381047017</v>
       </c>
       <c r="AY22">
-        <v>-2.451829860015453</v>
+        <v>-2.355806475145772</v>
       </c>
       <c r="AZ22">
-        <v>-1.467296258526263</v>
+        <v>-1.372720900450852</v>
       </c>
       <c r="BA22">
-        <v>-2.11737366557071</v>
+        <v>-2.130770575613827</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>0.1282543948753379</v>
-      </c>
       <c r="AV23">
-        <v>0.4753924577770352</v>
+        <v>0.3604862916655849</v>
       </c>
       <c r="AW23">
-        <v>0.2377624114569654</v>
+        <v>0.2402160864129366</v>
       </c>
       <c r="AX23">
-        <v>0.05738400842278946</v>
+        <v>-0.2397840863870404</v>
       </c>
       <c r="AY23">
-        <v>-0.5076775133253331</v>
+        <v>-0.5189868785143714</v>
       </c>
       <c r="AZ23">
-        <v>-0.02957675682233596</v>
+        <v>0.2610638872259319</v>
       </c>
       <c r="BA23">
-        <v>-0.9529168788645181</v>
+        <v>-0.7692530117426877</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>-0.4686310358672285</v>
-      </c>
       <c r="AZ24">
-        <v>-0.2194041930299595</v>
+        <v>0.04000600040001689</v>
       </c>
       <c r="BA24">
-        <v>-0.9982926811029857</v>
+        <v>-0.6384656377446452</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_TRDBAL_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_TRDBAL_AVERAGE_10_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2233 +535,1906 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="B3">
+        <v>0.8829082615425365</v>
+      </c>
+      <c r="C3">
+        <v>1.155022846258058</v>
+      </c>
+      <c r="D3">
+        <v>-0.6367039903685923</v>
+      </c>
+      <c r="E3">
+        <v>-4.857241224140941</v>
+      </c>
+      <c r="F3">
+        <v>-3.956152295564885</v>
+      </c>
+      <c r="G3">
+        <v>-3.851319353590821</v>
+      </c>
+      <c r="H3">
+        <v>-3.651173644695949</v>
+      </c>
+      <c r="I3">
+        <v>-3.551226026438292</v>
+      </c>
+      <c r="J3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="K3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="L3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="M3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="N3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="O3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="P3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="Q3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="R3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="S3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="T3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="U3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="V3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="W3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="X3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="Y3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="Z3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AA3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AB3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AC3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AD3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AE3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AF3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AG3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AH3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AI3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AJ3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AK3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AL3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AM3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AN3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AO3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AP3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AQ3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AR3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AS3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AT3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AU3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AV3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AW3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AX3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AY3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AZ3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="BA3">
+        <v>-3.560752169208581</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>2.070003986395053</v>
+        <v>40543</v>
       </c>
       <c r="C4">
-        <v>2.126050467613294</v>
+        <v>1.286157117685804</v>
       </c>
       <c r="D4">
-        <v>1.996184139986967</v>
+        <v>0.6415376390553673</v>
       </c>
       <c r="E4">
-        <v>1.996184139986967</v>
+        <v>-1.691674259276643</v>
       </c>
       <c r="F4">
-        <v>2.019708590734393</v>
+        <v>-0.6950853968889392</v>
       </c>
       <c r="G4">
-        <v>2.019708590734393</v>
+        <v>0.3625742673738719</v>
       </c>
       <c r="H4">
-        <v>2.019708590734393</v>
+        <v>1.234995474941436</v>
       </c>
       <c r="I4">
-        <v>2.019708590734393</v>
+        <v>1.348163430548532</v>
       </c>
       <c r="J4">
-        <v>2.019708590734393</v>
+        <v>1.275896887240346</v>
       </c>
       <c r="K4">
-        <v>2.019708590734393</v>
+        <v>1.275896887240346</v>
       </c>
       <c r="L4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="M4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="N4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="O4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="P4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="Q4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="R4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="S4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="T4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="U4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="V4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="W4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="X4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="Y4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="Z4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AA4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AB4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AC4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AD4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AE4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AF4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AG4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AH4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AI4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AJ4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AK4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AL4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AM4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AN4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AO4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AP4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AQ4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AR4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AS4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AT4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AU4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AV4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AW4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AX4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AY4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AZ4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="BA4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="B5">
-        <v>0.6967455006573253</v>
-      </c>
-      <c r="C5">
-        <v>0.9380533998416762</v>
-      </c>
-      <c r="D5">
-        <v>0.517569958955022</v>
+        <v>40908</v>
       </c>
       <c r="E5">
-        <v>0.5675883953422556</v>
+        <v>-1.221808193374685</v>
       </c>
       <c r="F5">
-        <v>0.6903823027894607</v>
+        <v>-0.9962562460937296</v>
       </c>
       <c r="G5">
-        <v>0.6903823027894607</v>
+        <v>-1.432000573345915</v>
       </c>
       <c r="H5">
-        <v>0.9192230051389805</v>
+        <v>-0.209816187756795</v>
       </c>
       <c r="I5">
-        <v>0.9192230051389805</v>
+        <v>0.9965309787904442</v>
       </c>
       <c r="J5">
-        <v>0.9192230051389805</v>
+        <v>0.8993608108207818</v>
       </c>
       <c r="K5">
-        <v>0.9192230051389805</v>
+        <v>0.8230381930494524</v>
       </c>
       <c r="L5">
-        <v>0.9192230051389805</v>
+        <v>0.7216192599892368</v>
       </c>
       <c r="M5">
-        <v>0.9192230051389805</v>
+        <v>0.7216192599892368</v>
       </c>
       <c r="N5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="O5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="P5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="Q5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="R5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="S5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="T5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="U5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="V5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="W5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="X5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="Y5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="Z5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AA5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AB5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AC5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AD5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AE5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AF5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AG5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AH5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AI5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AJ5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AK5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AL5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AM5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AN5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AO5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AP5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AQ5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AR5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AS5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AT5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AU5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AV5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AW5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AX5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AY5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AZ5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="BA5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="B6">
-        <v>0.8829082615425587</v>
-      </c>
-      <c r="C6">
-        <v>1.155022846258058</v>
-      </c>
-      <c r="D6">
-        <v>-0.6367039903686034</v>
-      </c>
-      <c r="E6">
-        <v>-4.857241224140929</v>
-      </c>
-      <c r="F6">
-        <v>-3.956152295564896</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>-3.851319353590832</v>
+        <v>-1.234245907164777</v>
       </c>
       <c r="H6">
-        <v>-3.651173644695949</v>
+        <v>-0.8494318965343139</v>
       </c>
       <c r="I6">
-        <v>-3.551226026438303</v>
+        <v>-0.02552935725171901</v>
       </c>
       <c r="J6">
-        <v>-3.560752169208581</v>
+        <v>1.205741443109987</v>
       </c>
       <c r="K6">
-        <v>-3.560752169208581</v>
+        <v>0.6836026627130787</v>
       </c>
       <c r="L6">
-        <v>-3.560752169208581</v>
+        <v>0.9010266119894084</v>
       </c>
       <c r="M6">
-        <v>-3.560752169208581</v>
+        <v>0.8759401840525038</v>
       </c>
       <c r="N6">
-        <v>-3.560752169208581</v>
+        <v>0.8252148217303912</v>
       </c>
       <c r="O6">
-        <v>-3.560752169208581</v>
+        <v>0.8252148217303912</v>
       </c>
       <c r="P6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="Q6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="R6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="S6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="T6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="U6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="V6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="W6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="X6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="Y6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="Z6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AA6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AB6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AC6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AD6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AE6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AF6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AG6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AH6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AI6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AJ6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AK6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AL6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AM6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AN6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AO6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AP6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AQ6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AR6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AS6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AT6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AU6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AV6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AW6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AX6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AY6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AZ6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="BA6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="C7">
-        <v>1.286157117685804</v>
-      </c>
-      <c r="D7">
-        <v>0.6415376390553895</v>
-      </c>
-      <c r="E7">
-        <v>-1.691674259276643</v>
-      </c>
-      <c r="F7">
-        <v>-0.6950853968889392</v>
-      </c>
-      <c r="G7">
-        <v>0.3625742673738941</v>
-      </c>
-      <c r="H7">
-        <v>1.234995474941392</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>1.348163430548532</v>
+        <v>-0.1599040255974127</v>
       </c>
       <c r="J7">
-        <v>1.275896887240369</v>
+        <v>1.569149750734411</v>
       </c>
       <c r="K7">
-        <v>1.275896887240369</v>
+        <v>1.279644059586871</v>
       </c>
       <c r="L7">
-        <v>1.224484594823694</v>
+        <v>1.531699207045123</v>
       </c>
       <c r="M7">
-        <v>1.224484594823694</v>
+        <v>0.2336505480021511</v>
       </c>
       <c r="N7">
-        <v>1.224484594823694</v>
+        <v>0.02019328874802717</v>
       </c>
       <c r="O7">
-        <v>1.224484594823694</v>
+        <v>-0.08115075007931738</v>
       </c>
       <c r="P7">
-        <v>1.224484594823694</v>
+        <v>-0.4107694080242363</v>
       </c>
       <c r="Q7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="R7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="S7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="T7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="U7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="V7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="W7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="X7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="Y7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="Z7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AA7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AB7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AC7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AD7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AE7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AF7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AG7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AH7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AI7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AJ7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AK7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AL7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AM7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AN7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AO7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AP7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AQ7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AR7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AS7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AT7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AU7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AV7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AW7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AX7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AY7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AZ7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="BA7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="E8">
-        <v>-1.221808193374685</v>
-      </c>
-      <c r="F8">
-        <v>-0.9962562460937296</v>
-      </c>
-      <c r="G8">
-        <v>-1.432000573345915</v>
-      </c>
-      <c r="H8">
-        <v>-0.2098161877568061</v>
-      </c>
-      <c r="I8">
-        <v>0.9965309787904442</v>
-      </c>
-      <c r="J8">
-        <v>0.899360810820804</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>0.8230381930494524</v>
+        <v>1.124712786946525</v>
       </c>
       <c r="L8">
-        <v>0.721619259989259</v>
+        <v>1.245777925635294</v>
       </c>
       <c r="M8">
-        <v>0.721619259989259</v>
+        <v>0.4758549421990166</v>
       </c>
       <c r="N8">
-        <v>0.6212498672565125</v>
+        <v>-0.1259279434590921</v>
       </c>
       <c r="O8">
-        <v>0.6212498672565125</v>
+        <v>-0.1446844164011307</v>
       </c>
       <c r="P8">
-        <v>0.6212498672565125</v>
+        <v>0.1729981757035093</v>
       </c>
       <c r="Q8">
-        <v>0.6212498672565125</v>
+        <v>0.2718030045139708</v>
       </c>
       <c r="R8">
-        <v>0.6212498672565125</v>
+        <v>0.1714062183274967</v>
       </c>
       <c r="S8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="T8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="U8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="V8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="W8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="X8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="Y8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="Z8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AA8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AB8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AC8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AD8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AE8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AF8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AG8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AH8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AI8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AJ8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AK8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AL8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AM8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AN8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AO8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AP8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AQ8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AR8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AS8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AT8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AU8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AV8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AW8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AX8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AY8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AZ8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="BA8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>-1.234245907164788</v>
-      </c>
-      <c r="H9">
-        <v>-0.8494318965343139</v>
-      </c>
-      <c r="I9">
-        <v>-0.02552935725171901</v>
-      </c>
-      <c r="J9">
-        <v>1.205741443109987</v>
-      </c>
-      <c r="K9">
-        <v>0.6836026627130565</v>
-      </c>
-      <c r="L9">
-        <v>0.9010266119894084</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>0.8759401840525038</v>
+        <v>0.4808646914074011</v>
       </c>
       <c r="N9">
-        <v>0.8252148217304134</v>
+        <v>0.1200540108007964</v>
       </c>
       <c r="O9">
-        <v>0.8252148217304134</v>
+        <v>-0.03923323971221082</v>
       </c>
       <c r="P9">
-        <v>0.9518528727121112</v>
+        <v>0.1749537368921361</v>
       </c>
       <c r="Q9">
-        <v>0.9518528727121112</v>
+        <v>-0.1588690085688071</v>
       </c>
       <c r="R9">
-        <v>0.9518528727121112</v>
+        <v>0.09752710595589686</v>
       </c>
       <c r="S9">
-        <v>0.9518528727121112</v>
+        <v>0.1227396980271855</v>
       </c>
       <c r="T9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="U9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="V9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="W9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="X9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="Y9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="Z9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AA9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AB9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AC9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AD9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AE9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AF9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AG9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AH9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AI9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AJ9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AK9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AL9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AM9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AN9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AO9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AP9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AQ9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AR9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AS9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AT9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AU9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AV9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AW9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AX9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AY9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AZ9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="BA9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>-0.1599040255974238</v>
-      </c>
-      <c r="J10">
-        <v>1.569149750734433</v>
-      </c>
-      <c r="K10">
-        <v>1.279644059586871</v>
-      </c>
-      <c r="L10">
-        <v>1.531699207045123</v>
-      </c>
-      <c r="M10">
-        <v>0.2336505480021955</v>
-      </c>
-      <c r="N10">
-        <v>0.02019328874804938</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>-0.08115075007928407</v>
+        <v>0.2001500500062203</v>
       </c>
       <c r="P10">
-        <v>-0.4107694080242141</v>
+        <v>0.08002400320015202</v>
       </c>
       <c r="Q10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4617525814883061</v>
       </c>
       <c r="R10">
-        <v>-0.3608752035976104</v>
+        <v>-0.001769149545449711</v>
       </c>
       <c r="S10">
-        <v>-0.3608752035976104</v>
+        <v>-0.5438176183081955</v>
       </c>
       <c r="T10">
-        <v>-0.3608752035976104</v>
+        <v>-0.5280591151586633</v>
       </c>
       <c r="U10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="V10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="W10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="X10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="Y10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="Z10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AA10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AB10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AC10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AD10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AE10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AF10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AG10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AH10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AI10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AJ10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AK10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AL10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AM10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AN10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AO10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AP10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AQ10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AR10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AS10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AT10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AU10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AV10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AW10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AX10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AY10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AZ10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="BA10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>1.124712786946525</v>
-      </c>
-      <c r="L11">
-        <v>1.245777925635272</v>
-      </c>
-      <c r="M11">
-        <v>0.4758549421990166</v>
-      </c>
-      <c r="N11">
-        <v>-0.1259279434590921</v>
-      </c>
-      <c r="O11">
-        <v>-0.1446844164011307</v>
-      </c>
-      <c r="P11">
-        <v>0.1729981757035093</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>0.2718030045139708</v>
+        <v>-0.4392745322535974</v>
       </c>
       <c r="R11">
-        <v>0.1714062183274745</v>
+        <v>0.04000600039999469</v>
       </c>
       <c r="S11">
-        <v>0.09627146709161316</v>
+        <v>0.01247916696662799</v>
       </c>
       <c r="T11">
-        <v>0.09627146709161316</v>
+        <v>-0.05116199209030947</v>
       </c>
       <c r="U11">
-        <v>0.09627146709161316</v>
+        <v>-0.006876704825686808</v>
       </c>
       <c r="V11">
-        <v>0.09627146709161316</v>
+        <v>0.0720185131838802</v>
       </c>
       <c r="W11">
-        <v>0.09627146709161316</v>
+        <v>0.02175702680231595</v>
       </c>
       <c r="X11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="Y11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="Z11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AA11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AB11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AC11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AD11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AE11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AF11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AG11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AH11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AI11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AJ11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AK11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AL11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AM11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AN11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AO11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AP11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AQ11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AR11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AS11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AT11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AU11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AV11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AW11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AX11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AY11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AZ11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="BA11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>0.4808646914074011</v>
-      </c>
-      <c r="N12">
-        <v>0.1200540108007964</v>
-      </c>
-      <c r="O12">
-        <v>-0.03923323971219972</v>
-      </c>
-      <c r="P12">
-        <v>0.1749537368921361</v>
-      </c>
-      <c r="Q12">
-        <v>-0.1588690085687849</v>
-      </c>
-      <c r="R12">
-        <v>0.09752710595589686</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>0.1227396980271855</v>
+        <v>0.04000600040001689</v>
       </c>
       <c r="T12">
-        <v>0.1477266864993165</v>
+        <v>-0.1199460107991768</v>
       </c>
       <c r="U12">
-        <v>0.1477266864993165</v>
+        <v>-0.05033169102144353</v>
       </c>
       <c r="V12">
-        <v>0.1477266864993165</v>
+        <v>0.2735900898381383</v>
       </c>
       <c r="W12">
-        <v>0.1477266864993165</v>
+        <v>0.6840863075407544</v>
       </c>
       <c r="X12">
-        <v>0.1477266864993165</v>
+        <v>0.6718983809452572</v>
       </c>
       <c r="Y12">
-        <v>0.1477266864993165</v>
+        <v>0.4580297089606056</v>
       </c>
       <c r="Z12">
-        <v>0.1477266864993165</v>
+        <v>0.3727661260635617</v>
       </c>
       <c r="AA12">
-        <v>0.1477266864993165</v>
+        <v>0.3978969634888196</v>
       </c>
       <c r="AB12">
-        <v>0.1477266864993165</v>
+        <v>0.3978969634888196</v>
       </c>
       <c r="AC12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AD12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AE12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AF12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AG12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AH12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AI12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AJ12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AK12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AL12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AM12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AN12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AO12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AP12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AQ12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AR12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AS12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AT12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AU12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AV12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AW12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AX12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AY12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AZ12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="BA12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>0.2001500500062203</v>
-      </c>
-      <c r="P13">
-        <v>0.08002400320015202</v>
-      </c>
-      <c r="Q13">
-        <v>-0.4617525814883283</v>
-      </c>
-      <c r="R13">
-        <v>-0.001769149545471915</v>
-      </c>
-      <c r="S13">
-        <v>-0.5438176183081733</v>
-      </c>
-      <c r="T13">
-        <v>-0.5280591151586633</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>-0.4279125887876933</v>
+        <v>-0.1599040255974238</v>
       </c>
       <c r="V13">
-        <v>-0.4279125887876933</v>
+        <v>0.04000600040001689</v>
       </c>
       <c r="W13">
-        <v>-0.4279125887876933</v>
+        <v>-0.0399940003999788</v>
       </c>
       <c r="X13">
-        <v>-0.4279125887876933</v>
+        <v>0.08750765859864007</v>
       </c>
       <c r="Y13">
-        <v>-0.4279125887876933</v>
+        <v>-0.09562311357415032</v>
       </c>
       <c r="Z13">
-        <v>-0.4279125887876933</v>
+        <v>-0.950584780912811</v>
       </c>
       <c r="AA13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8803054679952238</v>
       </c>
       <c r="AB13">
-        <v>-0.4279125887876933</v>
+        <v>-0.63478973259814</v>
       </c>
       <c r="AC13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8089889044073373</v>
       </c>
       <c r="AD13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8017595264762423</v>
       </c>
       <c r="AE13">
-        <v>-0.4279125887876933</v>
+        <v>-0.6529483649974854</v>
       </c>
       <c r="AF13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AG13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AH13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AI13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AJ13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AK13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AL13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AM13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AN13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AO13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AP13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AQ13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AR13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AS13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AT13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AU13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AV13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AW13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AX13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AY13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AZ13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="BA13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>-0.4392745322535752</v>
-      </c>
-      <c r="R14">
-        <v>0.04000600040001689</v>
-      </c>
-      <c r="S14">
-        <v>0.01247916696665019</v>
-      </c>
-      <c r="T14">
-        <v>-0.05116199209030947</v>
-      </c>
-      <c r="U14">
-        <v>-0.006876704825709012</v>
-      </c>
-      <c r="V14">
-        <v>0.07201851318385799</v>
-      </c>
-      <c r="W14">
-        <v>0.02175702680227154</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>-0.002674352087295162</v>
+        <v>0.1200540108008186</v>
       </c>
       <c r="Y14">
-        <v>-0.002674352087295162</v>
+        <v>0.1600960256025408</v>
       </c>
       <c r="Z14">
-        <v>-0.002674352087295162</v>
+        <v>-0.1599040255974238</v>
       </c>
       <c r="AA14">
-        <v>-0.002674352087295162</v>
+        <v>-0.2797061371760057</v>
       </c>
       <c r="AB14">
-        <v>-0.002674352087295162</v>
+        <v>0.01241557525979431</v>
       </c>
       <c r="AC14">
-        <v>-0.002674352087295162</v>
+        <v>-0.2234428210500905</v>
       </c>
       <c r="AD14">
-        <v>-0.002674352087295162</v>
+        <v>0.0476740348578808</v>
       </c>
       <c r="AE14">
-        <v>-0.002674352087295162</v>
+        <v>-0.3388987799285315</v>
       </c>
       <c r="AF14">
-        <v>-0.002674352087295162</v>
+        <v>-0.7158018152081613</v>
       </c>
       <c r="AG14">
-        <v>-0.002674352087295162</v>
+        <v>-2.1087047631976</v>
       </c>
       <c r="AH14">
-        <v>-0.002674352087295162</v>
+        <v>-1.103489789942047</v>
       </c>
       <c r="AI14">
-        <v>-0.002674352087295162</v>
+        <v>-1.028996259456316</v>
       </c>
       <c r="AJ14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AK14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AL14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AM14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AN14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AO14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AP14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AQ14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AR14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AS14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AT14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AU14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AV14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AW14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AX14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AY14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AZ14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="BA14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>0.04000600039999469</v>
-      </c>
-      <c r="T15">
+        <v>44561</v>
+      </c>
+      <c r="AB15">
+        <v>-0.0399940003999788</v>
+      </c>
+      <c r="AC15">
         <v>-0.1199460107991768</v>
       </c>
-      <c r="U15">
-        <v>-0.05033169102144353</v>
-      </c>
-      <c r="V15">
-        <v>0.2735900898381383</v>
-      </c>
-      <c r="W15">
-        <v>0.6840863075407766</v>
-      </c>
-      <c r="X15">
-        <v>0.6718983809452572</v>
-      </c>
-      <c r="Y15">
-        <v>0.4580297089606056</v>
-      </c>
-      <c r="Z15">
-        <v>0.3727661260635617</v>
-      </c>
-      <c r="AA15">
-        <v>0.3978969634888196</v>
-      </c>
-      <c r="AB15">
-        <v>0.3978969634888196</v>
-      </c>
-      <c r="AC15">
-        <v>0.3477863758372557</v>
-      </c>
       <c r="AD15">
-        <v>0.3477863758372557</v>
+        <v>-0.1998500499937217</v>
       </c>
       <c r="AE15">
-        <v>0.3477863758372557</v>
+        <v>-0.1599040255974238</v>
       </c>
       <c r="AF15">
-        <v>0.3477863758372557</v>
+        <v>-0.7615805088034833</v>
       </c>
       <c r="AG15">
-        <v>0.3477863758372557</v>
+        <v>-3.14817505165822</v>
       </c>
       <c r="AH15">
-        <v>0.3477863758372557</v>
+        <v>0.9394308447247202</v>
       </c>
       <c r="AI15">
-        <v>0.3477863758372557</v>
+        <v>1.840506831365407</v>
       </c>
       <c r="AJ15">
-        <v>0.3477863758372557</v>
+        <v>1.576357831383679</v>
       </c>
       <c r="AK15">
-        <v>0.3477863758372557</v>
+        <v>0.9319769131821865</v>
       </c>
       <c r="AL15">
-        <v>0.3477863758372557</v>
+        <v>0.9704846793491706</v>
       </c>
       <c r="AM15">
-        <v>0.3477863758372557</v>
+        <v>1.223326471750918</v>
       </c>
       <c r="AN15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AO15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AP15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AQ15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AR15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AS15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AT15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AU15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AV15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AW15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AX15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AY15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AZ15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="BA15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>-0.1599040255974238</v>
-      </c>
-      <c r="V16">
-        <v>0.04000600040001689</v>
-      </c>
-      <c r="W16">
-        <v>-0.0399940003999788</v>
-      </c>
-      <c r="X16">
-        <v>0.08750765859864007</v>
-      </c>
-      <c r="Y16">
-        <v>-0.09562311357415032</v>
-      </c>
-      <c r="Z16">
-        <v>-0.9505847809128332</v>
-      </c>
-      <c r="AA16">
-        <v>-0.8803054679952349</v>
-      </c>
-      <c r="AB16">
-        <v>-0.6347897325981511</v>
-      </c>
-      <c r="AC16">
-        <v>-0.8089889044073151</v>
-      </c>
-      <c r="AD16">
-        <v>-0.801759526476209</v>
-      </c>
-      <c r="AE16">
-        <v>-0.6529483649974743</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>-0.8261807291073175</v>
+        <v>-0.5986513494937284</v>
       </c>
       <c r="AG16">
-        <v>-0.8261807291073175</v>
+        <v>-1.906220183715857</v>
       </c>
       <c r="AH16">
-        <v>-0.8261807291073175</v>
+        <v>-0.3994003998999962</v>
       </c>
       <c r="AI16">
-        <v>-0.8261807291073175</v>
+        <v>0.04000600039999469</v>
       </c>
       <c r="AJ16">
-        <v>-0.8261807291073175</v>
+        <v>-0.03826480485497052</v>
       </c>
       <c r="AK16">
-        <v>-0.8261807291073175</v>
+        <v>-0.7143539453189907</v>
       </c>
       <c r="AL16">
-        <v>-0.8261807291073175</v>
+        <v>-0.8754609427830351</v>
       </c>
       <c r="AM16">
-        <v>-0.8261807291073175</v>
+        <v>-0.05255054327948372</v>
       </c>
       <c r="AN16">
-        <v>-0.8261807291073175</v>
+        <v>-1.488707312182613</v>
       </c>
       <c r="AO16">
-        <v>-0.8261807291073175</v>
+        <v>-1.002933118524785</v>
       </c>
       <c r="AP16">
-        <v>-0.8261807291073175</v>
+        <v>-0.7009264669202708</v>
       </c>
       <c r="AQ16">
-        <v>-0.8261807291073175</v>
+        <v>-0.5764037455884163</v>
       </c>
       <c r="AR16">
-        <v>-0.8261807291073175</v>
+        <v>-0.7498286166554458</v>
       </c>
       <c r="AS16">
-        <v>-0.8261807291073175</v>
+        <v>-0.7498286166554458</v>
       </c>
       <c r="AT16">
-        <v>-0.8261807291073175</v>
+        <v>-0.7498286166554458</v>
       </c>
       <c r="AU16">
-        <v>-0.8261807291073175</v>
+        <v>-0.7498286166554458</v>
       </c>
       <c r="AV16">
-        <v>-0.8261807291073175</v>
+        <v>-0.7498286166554458</v>
       </c>
       <c r="AW16">
-        <v>-0.8261807291073175</v>
+        <v>-0.7498286166554458</v>
       </c>
       <c r="AX16">
-        <v>-0.8261807291073175</v>
+        <v>-0.7498286166554458</v>
       </c>
       <c r="AY16">
-        <v>-0.8261807291073175</v>
+        <v>-0.7498286166554458</v>
       </c>
       <c r="AZ16">
-        <v>-0.8261807291073175</v>
+        <v>-0.7498286166554458</v>
       </c>
       <c r="BA16">
-        <v>-0.8261807291073175</v>
+        <v>-0.7498286166554458</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
+        <v>45291</v>
+      </c>
+      <c r="AJ17">
         <v>0.1200540108007964</v>
       </c>
-      <c r="Y17">
-        <v>0.1600960256025408</v>
-      </c>
-      <c r="Z17">
-        <v>-0.1599040255974349</v>
-      </c>
-      <c r="AA17">
-        <v>-0.2797061371759946</v>
-      </c>
-      <c r="AB17">
-        <v>0.01241557525981651</v>
-      </c>
-      <c r="AC17">
-        <v>-0.2234428210501016</v>
-      </c>
-      <c r="AD17">
-        <v>0.047674034857903</v>
-      </c>
-      <c r="AE17">
-        <v>-0.3388987799285426</v>
-      </c>
-      <c r="AF17">
-        <v>-0.7158018152081724</v>
-      </c>
-      <c r="AG17">
-        <v>-2.1087047631976</v>
-      </c>
-      <c r="AH17">
-        <v>-1.103489789942047</v>
-      </c>
-      <c r="AI17">
-        <v>-1.028996259456316</v>
-      </c>
-      <c r="AJ17">
-        <v>-1.099040380746563</v>
-      </c>
       <c r="AK17">
-        <v>-1.099040380746563</v>
+        <v>-0.1998500499937217</v>
       </c>
       <c r="AL17">
-        <v>-1.099040380746563</v>
+        <v>-0.3196162047590656</v>
       </c>
       <c r="AM17">
-        <v>-1.099040380746563</v>
+        <v>0.2001500500062425</v>
       </c>
       <c r="AN17">
-        <v>-1.099040380746563</v>
+        <v>-1.062239424572287</v>
       </c>
       <c r="AO17">
-        <v>-1.099040380746563</v>
+        <v>-0.8142357075366813</v>
       </c>
       <c r="AP17">
-        <v>-1.099040380746563</v>
+        <v>-0.4769809874827891</v>
       </c>
       <c r="AQ17">
-        <v>-1.099040380746563</v>
+        <v>0.2082795303714136</v>
       </c>
       <c r="AR17">
-        <v>-1.099040380746563</v>
+        <v>0.3474924879233177</v>
       </c>
       <c r="AS17">
-        <v>-1.099040380746563</v>
+        <v>0.1825990691692869</v>
       </c>
       <c r="AT17">
-        <v>-1.099040380746563</v>
+        <v>0.3928252664241683</v>
       </c>
       <c r="AU17">
-        <v>-1.099040380746563</v>
+        <v>0.4429953459436087</v>
       </c>
       <c r="AV17">
-        <v>-1.099040380746563</v>
+        <v>0.3439499888177044</v>
       </c>
       <c r="AW17">
-        <v>-1.099040380746563</v>
+        <v>0.3439499888177044</v>
       </c>
       <c r="AX17">
-        <v>-1.099040380746563</v>
+        <v>0.3439499888177044</v>
       </c>
       <c r="AY17">
-        <v>-1.099040380746563</v>
+        <v>0.3439499888177044</v>
       </c>
       <c r="AZ17">
-        <v>-1.099040380746563</v>
+        <v>0.3439499888177044</v>
       </c>
       <c r="BA17">
-        <v>-1.099040380746563</v>
+        <v>0.3439499888177044</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>-0.03999400040002321</v>
-      </c>
-      <c r="AC18">
-        <v>-0.1199460107991657</v>
-      </c>
-      <c r="AD18">
-        <v>-0.1998500499937328</v>
-      </c>
-      <c r="AE18">
-        <v>-0.1599040255974349</v>
-      </c>
-      <c r="AF18">
-        <v>-0.76158050880345</v>
-      </c>
-      <c r="AG18">
-        <v>-3.14817505165822</v>
-      </c>
-      <c r="AH18">
-        <v>0.9394308447247202</v>
-      </c>
-      <c r="AI18">
-        <v>1.840506831365407</v>
-      </c>
-      <c r="AJ18">
-        <v>1.576357831383701</v>
-      </c>
-      <c r="AK18">
-        <v>0.9319769131822087</v>
-      </c>
-      <c r="AL18">
-        <v>0.9704846793491928</v>
-      </c>
-      <c r="AM18">
-        <v>1.223326471750918</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>1.197694531567173</v>
+        <v>-0.7578367422967913</v>
       </c>
       <c r="AO18">
-        <v>1.197694531567173</v>
+        <v>-0.4791366909926209</v>
       </c>
       <c r="AP18">
-        <v>1.197694531567173</v>
+        <v>0.04000600039999469</v>
       </c>
       <c r="AQ18">
-        <v>1.197694531567173</v>
+        <v>1.165055762672784</v>
       </c>
       <c r="AR18">
-        <v>1.197694531567173</v>
+        <v>0.06147841237726936</v>
       </c>
       <c r="AS18">
-        <v>1.197694531567173</v>
+        <v>-0.5312671580391171</v>
       </c>
       <c r="AT18">
-        <v>1.197694531567173</v>
+        <v>0.1224005736915057</v>
       </c>
       <c r="AU18">
-        <v>1.197694531567173</v>
+        <v>0.3423504836346236</v>
       </c>
       <c r="AV18">
-        <v>1.197694531567173</v>
+        <v>0.8934739937295433</v>
       </c>
       <c r="AW18">
-        <v>1.197694531567173</v>
+        <v>0.7146010879610643</v>
       </c>
       <c r="AX18">
-        <v>1.197694531567173</v>
+        <v>0.3224026462283369</v>
       </c>
       <c r="AY18">
-        <v>1.197694531567173</v>
+        <v>0.2722041487321913</v>
       </c>
       <c r="AZ18">
-        <v>1.197694531567173</v>
+        <v>0.2473045135454655</v>
       </c>
       <c r="BA18">
-        <v>1.197694531567173</v>
+        <v>0.2473045135454655</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>-0.5986513494937284</v>
-      </c>
-      <c r="AG19">
-        <v>-1.906220183715845</v>
-      </c>
-      <c r="AH19">
-        <v>-0.3994003998999962</v>
-      </c>
-      <c r="AI19">
-        <v>0.04000600039999469</v>
-      </c>
-      <c r="AJ19">
-        <v>-0.03826480485497052</v>
-      </c>
-      <c r="AK19">
-        <v>-0.7143539453189685</v>
-      </c>
-      <c r="AL19">
-        <v>-0.8754609427830462</v>
-      </c>
-      <c r="AM19">
-        <v>-0.05255054327949482</v>
-      </c>
-      <c r="AN19">
-        <v>-1.488707312182591</v>
-      </c>
-      <c r="AO19">
-        <v>-1.002933118524796</v>
-      </c>
-      <c r="AP19">
-        <v>-0.7009264669202708</v>
-      </c>
-      <c r="AQ19">
-        <v>-0.5764037455884052</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>-0.7498286166554236</v>
+        <v>-0.1199460107991768</v>
       </c>
       <c r="AS19">
-        <v>-0.7498286166554236</v>
+        <v>-0.5588250972158204</v>
       </c>
       <c r="AT19">
-        <v>-0.7498286166554236</v>
+        <v>-0.0399940003999899</v>
       </c>
       <c r="AU19">
-        <v>-0.7498286166554236</v>
+        <v>0.1200540108007964</v>
       </c>
       <c r="AV19">
-        <v>-0.7498286166554236</v>
+        <v>0.4129745242491101</v>
       </c>
       <c r="AW19">
-        <v>-0.7498286166554236</v>
+        <v>0.1950507282544311</v>
       </c>
       <c r="AX19">
-        <v>-0.7498286166554236</v>
+        <v>-0.9749878381046684</v>
       </c>
       <c r="AY19">
-        <v>-0.7498286166554236</v>
+        <v>-2.355806475145761</v>
       </c>
       <c r="AZ19">
-        <v>-0.7498286166554236</v>
+        <v>-1.372720900450863</v>
       </c>
       <c r="BA19">
-        <v>-0.7498286166554236</v>
+        <v>-2.130770575613827</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>0.1200540108007742</v>
-      </c>
-      <c r="AK20">
-        <v>-0.1998500499937328</v>
-      </c>
-      <c r="AL20">
-        <v>-0.3196162047590656</v>
-      </c>
-      <c r="AM20">
-        <v>0.2001500500062425</v>
-      </c>
-      <c r="AN20">
-        <v>-1.062239424572275</v>
-      </c>
-      <c r="AO20">
-        <v>-0.8142357075366591</v>
-      </c>
-      <c r="AP20">
-        <v>-0.4769809874827891</v>
-      </c>
-      <c r="AQ20">
-        <v>0.2082795303714136</v>
-      </c>
-      <c r="AR20">
-        <v>0.3474924879233177</v>
-      </c>
-      <c r="AS20">
-        <v>0.1825990691692869</v>
-      </c>
-      <c r="AT20">
-        <v>0.3928252664241905</v>
-      </c>
-      <c r="AU20">
-        <v>0.4429953459436309</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>0.3439499888177044</v>
+        <v>0.3604862916655627</v>
       </c>
       <c r="AW20">
-        <v>0.3439499888177044</v>
+        <v>0.2402160864129366</v>
       </c>
       <c r="AX20">
-        <v>0.3439499888177044</v>
+        <v>-0.2397840863870515</v>
       </c>
       <c r="AY20">
-        <v>0.3439499888177044</v>
+        <v>-0.5189868785143714</v>
       </c>
       <c r="AZ20">
-        <v>0.3439499888177044</v>
+        <v>0.2610638872259319</v>
       </c>
       <c r="BA20">
-        <v>0.3439499888177044</v>
+        <v>-0.7692530117426877</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>-0.7578367422967913</v>
-      </c>
-      <c r="AO21">
-        <v>-0.4791366909926209</v>
-      </c>
-      <c r="AP21">
+        <v>46752</v>
+      </c>
+      <c r="AZ21">
         <v>0.04000600040001689</v>
       </c>
-      <c r="AQ21">
-        <v>1.165055762672784</v>
-      </c>
-      <c r="AR21">
-        <v>0.06147841237726936</v>
-      </c>
-      <c r="AS21">
-        <v>-0.5312671580391282</v>
-      </c>
-      <c r="AT21">
-        <v>0.1224005736915057</v>
-      </c>
-      <c r="AU21">
-        <v>0.3423504836346236</v>
-      </c>
-      <c r="AV21">
-        <v>0.8934739937295655</v>
-      </c>
-      <c r="AW21">
-        <v>0.7146010879610865</v>
-      </c>
-      <c r="AX21">
-        <v>0.3224026462283813</v>
-      </c>
-      <c r="AY21">
-        <v>0.2722041487322135</v>
-      </c>
-      <c r="AZ21">
-        <v>0.2473045135454877</v>
-      </c>
       <c r="BA21">
-        <v>0.2473045135454877</v>
+        <v>-0.6384656377446674</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>-0.1199460107991657</v>
-      </c>
-      <c r="AS22">
-        <v>-0.5588250972158315</v>
-      </c>
-      <c r="AT22">
-        <v>-0.0399940003999677</v>
-      </c>
-      <c r="AU22">
-        <v>0.1200540108008186</v>
-      </c>
-      <c r="AV22">
-        <v>0.4129745242490879</v>
-      </c>
-      <c r="AW22">
-        <v>0.1950507282544311</v>
-      </c>
-      <c r="AX22">
-        <v>-0.9749878381047017</v>
-      </c>
-      <c r="AY22">
-        <v>-2.355806475145772</v>
-      </c>
-      <c r="AZ22">
-        <v>-1.372720900450852</v>
-      </c>
-      <c r="BA22">
-        <v>-2.130770575613827</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>0.3604862916655849</v>
-      </c>
-      <c r="AW23">
-        <v>0.2402160864129366</v>
-      </c>
-      <c r="AX23">
-        <v>-0.2397840863870404</v>
-      </c>
-      <c r="AY23">
-        <v>-0.5189868785143714</v>
-      </c>
-      <c r="AZ23">
-        <v>0.2610638872259319</v>
-      </c>
-      <c r="BA23">
-        <v>-0.7692530117426877</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>0.04000600040001689</v>
-      </c>
-      <c r="BA24">
-        <v>-0.6384656377446452</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_TRDBAL_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_TRDBAL_AVERAGE_10_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -698,8 +701,11 @@
       <c r="BA3">
         <v>-3.560752169208581</v>
       </c>
+      <c r="BB3">
+        <v>-3.560752169208581</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -856,8 +862,11 @@
       <c r="BA4">
         <v>1.224484594823672</v>
       </c>
+      <c r="BB4">
+        <v>1.224484594823672</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -1008,8 +1017,11 @@
       <c r="BA5">
         <v>0.6212498672564903</v>
       </c>
+      <c r="BB5">
+        <v>0.6212498672564903</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1154,8 +1166,11 @@
       <c r="BA6">
         <v>0.951852872712089</v>
       </c>
+      <c r="BB6">
+        <v>0.951852872712089</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1294,8 +1309,11 @@
       <c r="BA7">
         <v>-0.3608752035976437</v>
       </c>
+      <c r="BB7">
+        <v>-0.3608752035976437</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1428,8 +1446,11 @@
       <c r="BA8">
         <v>0.09627146709163537</v>
       </c>
+      <c r="BB8">
+        <v>0.09627146709163537</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1556,8 +1577,11 @@
       <c r="BA9">
         <v>0.1477266864992943</v>
       </c>
+      <c r="BB9">
+        <v>0.1477266864992943</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1678,8 +1702,11 @@
       <c r="BA10">
         <v>-0.4279125887877044</v>
       </c>
+      <c r="BB10">
+        <v>-0.4279125887877044</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1794,8 +1821,11 @@
       <c r="BA11">
         <v>-0.002674352087272958</v>
       </c>
+      <c r="BB11">
+        <v>-0.002674352087272958</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1904,8 +1934,11 @@
       <c r="BA12">
         <v>0.3477863758372779</v>
       </c>
+      <c r="BB12">
+        <v>0.3477863758372779</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -2008,8 +2041,11 @@
       <c r="BA13">
         <v>-0.8261807291073398</v>
       </c>
+      <c r="BB13">
+        <v>-0.8261807291073398</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2103,8 +2139,11 @@
       <c r="BA14">
         <v>-1.099040380746541</v>
       </c>
+      <c r="BB14">
+        <v>-1.099040380746541</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2186,8 +2225,11 @@
       <c r="BA15">
         <v>1.197694531567151</v>
       </c>
+      <c r="BB15">
+        <v>1.197694531567151</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2257,8 +2299,11 @@
       <c r="BA16">
         <v>-0.7498286166554458</v>
       </c>
+      <c r="BB16">
+        <v>-0.7498286166554458</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2316,8 +2361,11 @@
       <c r="BA17">
         <v>0.3439499888177044</v>
       </c>
+      <c r="BB17">
+        <v>0.3439499888177044</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2363,8 +2411,11 @@
       <c r="BA18">
         <v>0.2473045135454655</v>
       </c>
+      <c r="BB18">
+        <v>0.2473045135454655</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2398,8 +2449,11 @@
       <c r="BA19">
         <v>-2.130770575613827</v>
       </c>
+      <c r="BB19">
+        <v>-2.06674933094535</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2421,8 +2475,11 @@
       <c r="BA20">
         <v>-0.7692530117426877</v>
       </c>
+      <c r="BB20">
+        <v>-0.9969640812590996</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2432,8 +2489,11 @@
       <c r="BA21">
         <v>-0.6384656377446674</v>
       </c>
+      <c r="BB21">
+        <v>-0.9962562460937296</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
